--- a/data/input/absenteeism_data_19.xlsx
+++ b/data/input/absenteeism_data_19.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89158</v>
+        <v>5549</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bianca Caldeira</t>
+          <t>Brenda da Mota</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>3226.23</v>
+        <v>3738.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3307</v>
+        <v>2835</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Miguel Caldeira</t>
+          <t>Noah Vieira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,205 +519,205 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>11489.85</v>
+        <v>5627.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62213</v>
+        <v>50012</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bianca Barbosa</t>
+          <t>Alice da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>12091.91</v>
+        <v>10841.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>38202</v>
+        <v>86657</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Luiz Viana</t>
+          <t>Carlos Eduardo da Paz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>2948.33</v>
+        <v>3163.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72583</v>
+        <v>22787</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lara Pinto</t>
+          <t>Alícia Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>11417.51</v>
+        <v>3143.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45245</v>
+        <v>63518</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Daniela da Mota</t>
+          <t>Breno Fernandes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>5780.89</v>
+        <v>5224.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14132</v>
+        <v>92228</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Rocha</t>
+          <t>Laura Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>8869.85</v>
+        <v>9744.059999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6129</v>
+        <v>97101</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enrico Aragão</t>
+          <t>Pedro Lucas Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>5001.45</v>
+        <v>9011.959999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59044</v>
+        <v>78231</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marina Azevedo</t>
+          <t>Luiz Felipe Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>4477.03</v>
+        <v>3550.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31727</v>
+        <v>66922</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alana Cunha</t>
+          <t>Dra. Maria Sophia Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>12182.3</v>
+        <v>11230.72</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_19.xlsx
+++ b/data/input/absenteeism_data_19.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5549</v>
+        <v>31810</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brenda da Mota</t>
+          <t>Amanda Moraes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>3738.8</v>
+        <v>9982.139999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2835</v>
+        <v>41407</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noah Vieira</t>
+          <t>Matheus da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>5627.35</v>
+        <v>7947.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50012</v>
+        <v>47687</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice da Mata</t>
+          <t>Ana Vitória Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>10841.67</v>
+        <v>3070.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86657</v>
+        <v>94801</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carlos Eduardo da Paz</t>
+          <t>Ana Vitória Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>3163.29</v>
+        <v>7250.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22787</v>
+        <v>89624</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alícia Barros</t>
+          <t>Nicolas Fogaça</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>3143.76</v>
+        <v>2969.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63518</v>
+        <v>92406</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Breno Fernandes</t>
+          <t>Bianca Caldeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>5224.11</v>
+        <v>12486.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92228</v>
+        <v>24055</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Silva</t>
+          <t>Lívia Costela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>9744.059999999999</v>
+        <v>9525.790000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97101</v>
+        <v>22158</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pedro Lucas Pires</t>
+          <t>Carlos Eduardo da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>9011.959999999999</v>
+        <v>8287.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78231</v>
+        <v>35994</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Felipe Pereira</t>
+          <t>Sr. Otávio Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>3550.85</v>
+        <v>5976.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66922</v>
+        <v>45487</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Maria Sophia Moreira</t>
+          <t>Vitor Hugo Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>11230.72</v>
+        <v>4787.74</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_19.xlsx
+++ b/data/input/absenteeism_data_19.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31810</v>
+        <v>7805</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amanda Moraes</t>
+          <t>Sra. Maitê da Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>9982.139999999999</v>
+        <v>6534.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41407</v>
+        <v>50156</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matheus da Costa</t>
+          <t>Luiz Fernando Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,205 +519,205 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>7947.9</v>
+        <v>12248.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>47687</v>
+        <v>88829</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória Souza</t>
+          <t>Dra. Fernanda Freitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>3070.24</v>
+        <v>11513.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94801</v>
+        <v>27339</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Vitória Farias</t>
+          <t>Mariana Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>7250.65</v>
+        <v>10321.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89624</v>
+        <v>64138</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicolas Fogaça</t>
+          <t>Vicente Rezende</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>2969.94</v>
+        <v>5639.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92406</v>
+        <v>73589</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bianca Caldeira</t>
+          <t>Srta. Gabriela Teixeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>12486.16</v>
+        <v>8013.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24055</v>
+        <v>65781</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lívia Costela</t>
+          <t>Enzo Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>9525.790000000001</v>
+        <v>9576.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22158</v>
+        <v>11666</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carlos Eduardo da Mota</t>
+          <t>Yago Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>8287.58</v>
+        <v>10474.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35994</v>
+        <v>40273</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Otávio Cunha</t>
+          <t>Lavínia Pinto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>5976.63</v>
+        <v>11590.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>45487</v>
+        <v>19144</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitor Hugo Costa</t>
+          <t>Maria Vitória Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>4787.74</v>
+        <v>4675.68</v>
       </c>
     </row>
   </sheetData>
